--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1112.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1112.xlsx
@@ -354,7 +354,7 @@
         <v>1.661900650409172</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.898529925083551</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1112.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1112.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9699617655395227</v>
+        <v>1.173257112503052</v>
       </c>
       <c r="B1">
-        <v>1.661900650409172</v>
+        <v>2.389649629592896</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.898529925083551</v>
+        <v>2.365973234176636</v>
       </c>
       <c r="E1">
-        <v>1.284674767762903</v>
+        <v>1.209512710571289</v>
       </c>
     </row>
   </sheetData>
